--- a/biology/Zoologie/Hoplia_coerulea/Hoplia_coerulea.xlsx
+++ b/biology/Zoologie/Hoplia_coerulea/Hoplia_coerulea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoplia coerulea ou Hoplia caerulea, l'hoplie bleue, est une espèce d'insectes coléoptères de la famille des scarabéidés.
 Le mâle est remarquable par sa couleur bleu métallique, la femelle plus discrète, est de couleur brunâtre.
